--- a/SESSupplyPoint.xlsx
+++ b/SESSupplyPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1596BF3-277F-438B-8CDF-A159E17B0448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0509F3DA-9FCE-4C07-A830-A955B5D98078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +760,7 @@
         <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">

--- a/SESSupplyPoint.xlsx
+++ b/SESSupplyPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0509F3DA-9FCE-4C07-A830-A955B5D98078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47020591-C835-4B62-BBE3-8ADE8F225379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,6 +765,9 @@
       <c r="I9" t="s">
         <v>55</v>
       </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">

--- a/SESSupplyPoint.xlsx
+++ b/SESSupplyPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47020591-C835-4B62-BBE3-8ADE8F225379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899EEC10-7976-420D-B2D6-02E7E6AFFD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -185,12 +185,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -571,7 +565,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I9" activeCellId="1" sqref="I7:J7 I9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,10 +757,7 @@
         <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
